--- a/tweets.xlsx
+++ b/tweets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,424 +454,89 @@
           <t>Fecha</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dispositivo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Marcy</t>
+          <t>sword</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RT @sandibachom: Am I the only person that notices the anti vaxx movement has been taken over by anti semetic white supremacists, 'Let's Go…</t>
+          <t>@BigBossIsBack77 Stop lying bitch. U never won against me and u never will😎you are just a piece of shite💩</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>No se ha proporcionado una ubicación</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu Nov 18 21:32:03 +0000 2021</t>
+          <t>Tue Nov 30 15:31:10 +0000 2021</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Twitter for Android</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No se ha proporcionado una descripcion</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/twitter/statuses/1465704968552214537</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>opposablethumbs</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RT @MuellerSheWrote: There are strong forces at work, and millions in dark money being spent to steal your vote. The GOP and foreign bad ac…</t>
+          <t>RT @blaize__smith: No means no fellas don’t get caught up wit this childish ass game</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>North Logan, UT</t>
+          <t>Fleetwood, PA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu Nov 18 21:32:03 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DjangoInMississippi</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RT @peterdaou: American bombers double-tapped a crowd of women and children in Syria, killing dozens.
-Trump concealed it. Biden kept it hi…</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Washington, DC</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:03 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thee Julian</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RT @TomJChicago: Breaking- Elizabeth Warren is calling for an investigation into the Trump/ DWAC stock scam. This is a classic pump &amp;amp; dump…</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>East Coast</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NewsTrendingUpdates</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RT @OccupyDemocrats: BREAKING: Newly exposed text messages reveal that Donald Trump Jr's girlfriend Kimberly Guilfoyle bragged to a Republi…</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jan Forney</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RT @Cre8NoH8: Two Iranians Charged With Spreading Election Disinformation, Threatening People to Vote for Trump – NBC 5 Dallas-Fort Worth h…</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kathy</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RT @mitchellreports: Former Secretary of State Madeleine Albright was fired by Donald Trump from the Defense Policy Advisory Board. Preside…</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Pennsylvania, USA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>💧Heather</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RT @TaodeHaas: Morrison commenting on the Melbourne violence is having increasing more Trump moments. He’s walking very close to the line,…</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Debbie</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>@DrEricDing Just an awful public servant.  Has no decorum. Although he’s “educated” he tries so hard to come across… https://t.co/FWttrEhID1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:04 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FULLY VACCINATED!!BidenHarris!!! 🇺🇲</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RT @TomJChicago: Breaking- Elizabeth Warren is calling for an investigation into the Trump/ DWAC stock scam. This is a classic pump &amp;amp; dump…</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>New York, USA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:05 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>louise burgin</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>RT @mitchellreports: Former Secretary of State Madeleine Albright was fired by Donald Trump from the Defense Policy Advisory Board. Preside…</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:05 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DG</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>RT @OccupyDemocrats: BREAKING: Newly exposed text messages reveal that Donald Trump Jr's girlfriend Kimberly Guilfoyle bragged to a Republi…</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pasadena, CA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:05 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>God Lovin Patriot</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>@GravesPeabody Everything they accused Trump of they are guilty of..</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Colorado Proud</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:05 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The Lincoln Party™ Movement🇺🇸</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>No losing Presidential candidate has previously appeared at a rally in between Election Day and Inauguration Day.… https://t.co/eHDzPFBON0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Illinois, USA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:05 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Joyful</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RT @Acyn: Cheney earlier: I think that Trump broke Ted Cruz.. I think that a real man would be defending his wife, his father, and the cons…</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:06 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Barbara Walsh</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RT @EricBoehlert: 71% Americans dont want Trump to run again; https://t.co/FZzkbRhHei</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Honolulu, Hawaii</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:07 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Annette C. Welling</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>RT @SafetyPinDaily: Don't let Trump or Jan. 6 distract from Covid accountability efforts || By Nina Burleigh https://t.co/77iwxVH3iF</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Rockdale, Maryland</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:07 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Kathryn</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>@newsbreakApp IF is a big word to say. Not true leaders for America. Vote to replace. Too toxic. America needs true… https://t.co/mWZlVqPD26</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>No se ha proporcionado una ubicación</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:07 +0000 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Michael McGarry</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RT @FriendEden100: Texts show Kimberly Guilfoyle bragged about raising millions for rally that fueled Capitol riot. 
-The text messages are…</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Virginia, USA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu Nov 18 21:32:07 +0000 2021</t>
+          <t>Tue Nov 30 15:31:10 +0000 2021</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Twitter for iPhone</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://twitter.com/twitter/statuses/1465704968321581061</t>
         </is>
       </c>
     </row>
